--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H2">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J2">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>161.070440697667</v>
+        <v>148.4761865521018</v>
       </c>
       <c r="R2">
-        <v>1449.633966279003</v>
+        <v>1336.285678968916</v>
       </c>
       <c r="S2">
-        <v>0.003001765524896302</v>
+        <v>0.002811824349710392</v>
       </c>
       <c r="T2">
-        <v>0.003001765524896302</v>
+        <v>0.002811824349710392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H3">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J3">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>655.6234425258384</v>
+        <v>920.9482898736434</v>
       </c>
       <c r="R3">
-        <v>5900.610982732545</v>
+        <v>8288.53460886279</v>
       </c>
       <c r="S3">
-        <v>0.01221842964210874</v>
+        <v>0.01744080910498167</v>
       </c>
       <c r="T3">
-        <v>0.01221842964210874</v>
+        <v>0.01744080910498168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H4">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J4">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>215.2860143198515</v>
+        <v>368.7757171518911</v>
       </c>
       <c r="R4">
-        <v>1937.574128878664</v>
+        <v>3318.98145436702</v>
       </c>
       <c r="S4">
-        <v>0.004012146070865144</v>
+        <v>0.006983830640785819</v>
       </c>
       <c r="T4">
-        <v>0.004012146070865144</v>
+        <v>0.006983830640785819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.98327633333333</v>
+        <v>16.83279933333333</v>
       </c>
       <c r="H5">
-        <v>35.949829</v>
+        <v>50.498398</v>
       </c>
       <c r="I5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="J5">
-        <v>0.03345300399843466</v>
+        <v>0.04383102208811961</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>763.0604052380635</v>
+        <v>876.2626614706273</v>
       </c>
       <c r="R5">
-        <v>6867.543647142571</v>
+        <v>7886.363953235646</v>
       </c>
       <c r="S5">
-        <v>0.01422066276056446</v>
+        <v>0.01659455799264172</v>
       </c>
       <c r="T5">
-        <v>0.01422066276056447</v>
+        <v>0.01659455799264172</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I6">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J6">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>4467.510609091766</v>
+        <v>2931.742199395285</v>
       </c>
       <c r="R6">
-        <v>40207.5954818259</v>
+        <v>26385.67979455757</v>
       </c>
       <c r="S6">
-        <v>0.08325810291692076</v>
+        <v>0.05552098484453208</v>
       </c>
       <c r="T6">
-        <v>0.08325810291692078</v>
+        <v>0.05552098484453209</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I7">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J7">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>18184.61955133816</v>
@@ -883,10 +883,10 @@
         <v>163661.5759620434</v>
       </c>
       <c r="S7">
-        <v>0.3388949816994743</v>
+        <v>0.3443781607815578</v>
       </c>
       <c r="T7">
-        <v>0.3388949816994744</v>
+        <v>0.344378160781558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I8">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J8">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>5971.254246260652</v>
+        <v>7281.674975583176</v>
       </c>
       <c r="R8">
-        <v>53741.28821634587</v>
+        <v>65535.07478024859</v>
       </c>
       <c r="S8">
-        <v>0.1112823995462967</v>
+        <v>0.1378994940433548</v>
       </c>
       <c r="T8">
-        <v>0.1112823995462967</v>
+        <v>0.1378994940433548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>997.1180420000001</v>
       </c>
       <c r="I9">
-        <v>0.9278651602470024</v>
+        <v>0.8654671168650652</v>
       </c>
       <c r="J9">
-        <v>0.9278651602470025</v>
+        <v>0.8654671168650654</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>21164.53174780621</v>
+        <v>17302.27777291669</v>
       </c>
       <c r="R9">
-        <v>190480.7857302559</v>
+        <v>155720.4999562502</v>
       </c>
       <c r="S9">
-        <v>0.3944296760843105</v>
+        <v>0.3276684771956204</v>
       </c>
       <c r="T9">
-        <v>0.3944296760843106</v>
+        <v>0.3276684771956205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H10">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J10">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>185.088272398658</v>
+        <v>304.3851151013631</v>
       </c>
       <c r="R10">
-        <v>1665.794451587922</v>
+        <v>2739.466035912268</v>
       </c>
       <c r="S10">
-        <v>0.003449370304957231</v>
+        <v>0.005764409082739185</v>
       </c>
       <c r="T10">
-        <v>0.003449370304957232</v>
+        <v>0.005764409082739186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H11">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J11">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>753.3859707315365</v>
+        <v>1887.999400612463</v>
       </c>
       <c r="R11">
-        <v>6780.473736583829</v>
+        <v>16991.99460551217</v>
       </c>
       <c r="S11">
-        <v>0.01404036658797828</v>
+        <v>0.03575470794448149</v>
       </c>
       <c r="T11">
-        <v>0.01404036658797828</v>
+        <v>0.0357547079444815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H12">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J12">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>247.3881383167484</v>
+        <v>756.0124065583844</v>
       </c>
       <c r="R12">
-        <v>2226.493244850736</v>
+        <v>6804.111659025461</v>
       </c>
       <c r="S12">
-        <v>0.004610412572604633</v>
+        <v>0.0143172729769569</v>
       </c>
       <c r="T12">
-        <v>0.004610412572604635</v>
+        <v>0.0143172729769569</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.77014866666667</v>
+        <v>34.50825133333333</v>
       </c>
       <c r="H13">
-        <v>41.310446</v>
+        <v>103.524754</v>
       </c>
       <c r="I13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594501</v>
       </c>
       <c r="J13">
-        <v>0.03844130983808348</v>
+        <v>0.08985623225594502</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>876.8432713636867</v>
+        <v>1796.391173995895</v>
       </c>
       <c r="R13">
-        <v>7891.589442273181</v>
+        <v>16167.52056596306</v>
       </c>
       <c r="S13">
-        <v>0.01634116037254333</v>
+        <v>0.03401984225176743</v>
       </c>
       <c r="T13">
-        <v>0.01634116037254334</v>
+        <v>0.03401984225176744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H14">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J14">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>1.158090776194</v>
+        <v>2.864540504089333</v>
       </c>
       <c r="R14">
-        <v>10.422816985746</v>
+        <v>25.780864536804</v>
       </c>
       <c r="S14">
-        <v>2.158258803801671E-05</v>
+        <v>5.424832713698256E-05</v>
       </c>
       <c r="T14">
-        <v>2.158258803801671E-05</v>
+        <v>5.424832713698256E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H15">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J15">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>4.713909381243333</v>
+        <v>17.76778983739</v>
       </c>
       <c r="R15">
-        <v>42.42518443119</v>
+        <v>159.91010853651</v>
       </c>
       <c r="S15">
-        <v>8.785007731282904E-05</v>
+        <v>0.0003364842892686943</v>
       </c>
       <c r="T15">
-        <v>8.785007731282904E-05</v>
+        <v>0.0003364842892686944</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H16">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J16">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>1.547898834494222</v>
+        <v>7.114763675153333</v>
       </c>
       <c r="R16">
-        <v>13.931089510448</v>
+        <v>64.03287307638</v>
       </c>
       <c r="S16">
-        <v>2.884718845547444E-05</v>
+        <v>0.0001347385477011226</v>
       </c>
       <c r="T16">
-        <v>2.884718845547445E-05</v>
+        <v>0.0001347385477011226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08615933333333332</v>
+        <v>0.324754</v>
       </c>
       <c r="H17">
-        <v>0.258478</v>
+        <v>0.974262</v>
       </c>
       <c r="I17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700705</v>
       </c>
       <c r="J17">
-        <v>0.0002405259164795302</v>
+        <v>0.0008456287908700706</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>5.486377346193334</v>
+        <v>16.905673187686</v>
       </c>
       <c r="R17">
-        <v>49.37739611574001</v>
+        <v>152.151058689174</v>
       </c>
       <c r="S17">
-        <v>0.0001022460626732099</v>
+        <v>0.0003201576267632709</v>
       </c>
       <c r="T17">
-        <v>0.00010224606267321</v>
+        <v>0.000320157626763271</v>
       </c>
     </row>
   </sheetData>
